--- a/biology/Médecine/Scutulum/Scutulum.xlsx
+++ b/biology/Médecine/Scutulum/Scutulum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un scutulum est une croûte jaune, périfolliculaire, en forme de soucoupe avec une odeur de fromage et composée de tapis denses de mycélium et de débris épithéliaux. Un scutulum peut apparaitre sur le cuir chevelu et est caractéristiques du favus[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un scutulum est une croûte jaune, périfolliculaire, en forme de soucoupe avec une odeur de fromage et composée de tapis denses de mycélium et de débris épithéliaux. Un scutulum peut apparaitre sur le cuir chevelu et est caractéristiques du favus.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le scutulum :
 se compose d'une lésion jaune ressemblant à une croûte (bouchon de soufre) ;
